--- a/reads/reads_schema_main_v0.1.xlsx
+++ b/reads/reads_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC542B-C276-C545-9A10-4899D59A7E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD21C1F-4552-4049-BA3A-E2C9A0D3379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="term_mapping" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$54</definedName>
-    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$R$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$S$54</definedName>
+    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$S$45</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1252">
   <si>
     <t>component_name</t>
   </si>
@@ -3801,6 +3801,39 @@
   </si>
   <si>
     <t>ANNFILE01</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>ASSEM</t>
+  </si>
+  <si>
+    <t>ASSEMFILE</t>
+  </si>
+  <si>
+    <t>ASSEMRUNREF</t>
+  </si>
+  <si>
+    <t>ASSEMGEM</t>
+  </si>
+  <si>
+    <t>SEQANN</t>
+  </si>
+  <si>
+    <t>SEQANNRUNREF</t>
+  </si>
+  <si>
+    <t>SEQANNFILE</t>
+  </si>
+  <si>
+    <t>RUNFILE</t>
+  </si>
+  <si>
+    <t>identifier_prefix</t>
+  </si>
+  <si>
+    <t>LIBPREP</t>
   </si>
 </sst>
 </file>
@@ -4750,7 +4783,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:R54" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:S54" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -5100,12 +5133,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="O93" sqref="O93"/>
+      <selection pane="topRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5115,22 +5148,22 @@
     <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="114.83203125" customWidth="1"/>
-    <col min="9" max="9" width="131.83203125" customWidth="1"/>
-    <col min="10" max="10" width="66.5" customWidth="1"/>
-    <col min="11" max="11" width="58.5" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="24.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="114.83203125" customWidth="1"/>
+    <col min="10" max="10" width="131.83203125" customWidth="1"/>
+    <col min="11" max="11" width="66.5" customWidth="1"/>
+    <col min="12" max="12" width="58.5" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.5" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5150,43 +5183,46 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>1172</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="Q1" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="S1" s="57" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -5202,39 +5238,39 @@
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="59" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="56" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S2" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -5253,35 +5289,35 @@
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S3" s="25"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -5300,31 +5336,31 @@
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R4" s="60"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -5340,39 +5376,39 @@
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="P5" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>25</v>
       </c>
       <c r="Q5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -5388,33 +5424,33 @@
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="P6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R6" s="60"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -5430,35 +5466,35 @@
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="P7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="60"/>
       <c r="Q7" s="60"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R7" s="60"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -5474,33 +5510,33 @@
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="60" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R8" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -5519,33 +5555,33 @@
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="60" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -5561,33 +5597,33 @@
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R10" s="60"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -5603,35 +5639,35 @@
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R11" s="60"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -5647,35 +5683,35 @@
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="61" t="s">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R12" s="61"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -5691,35 +5727,35 @@
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="22"/>
+      <c r="Q13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="70"/>
-    </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="R13" s="60"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -5735,29 +5771,29 @@
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="60"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="60"/>
-      <c r="R14" s="70" t="s">
+      <c r="R14" s="60"/>
+      <c r="S14" s="70" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -5773,33 +5809,33 @@
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="61"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="61"/>
-      <c r="R15" s="71" t="s">
+      <c r="R15" s="61"/>
+      <c r="S15" s="71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -5818,29 +5854,29 @@
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="61"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="61"/>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="61"/>
+      <c r="S16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -5856,35 +5892,35 @@
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="N17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="61" t="s">
+      <c r="O17" s="4"/>
+      <c r="P17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
@@ -5901,42 +5937,43 @@
       <c r="F18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="62" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="72" t="s">
+      <c r="R18" s="62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S18" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>109</v>
       </c>
@@ -5952,39 +5989,39 @@
       <c r="F19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="60" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S19" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
@@ -6000,41 +6037,41 @@
       <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S20" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -6050,41 +6087,41 @@
       <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S21" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -6100,41 +6137,41 @@
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="O22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="O22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="60" t="s">
+      <c r="P22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q22" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S22" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
@@ -6150,41 +6187,41 @@
       <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="60" t="s">
+      <c r="P23" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q23" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S23" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
@@ -6200,37 +6237,37 @@
       <c r="F24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -6246,41 +6283,41 @@
       <c r="F25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="61" t="s">
+      <c r="P25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="Q25" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>153</v>
       </c>
@@ -6297,42 +6334,43 @@
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="63" t="s">
+      <c r="Q26" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="74" t="s">
+      <c r="R26" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="54" t="s">
+      <c r="S26" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>153</v>
       </c>
@@ -6348,39 +6386,39 @@
       <c r="F27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="64" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q27" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="73" t="s">
+      <c r="R27" s="64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S27" s="73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>153</v>
       </c>
@@ -6399,41 +6437,41 @@
       <c r="F28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="64" t="s">
+      <c r="P28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="73" t="s">
+      <c r="R28" s="64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S28" s="73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>153</v>
       </c>
@@ -6452,41 +6490,41 @@
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>8036</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="O29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="64" t="s">
+      <c r="P29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q29" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="73" t="s">
+      <c r="R29" s="64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>153</v>
       </c>
@@ -6505,37 +6543,37 @@
       <c r="F30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" s="65" t="s">
+      <c r="P30" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q30" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="55" t="s">
+      <c r="R30" s="65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>187</v>
       </c>
@@ -6552,42 +6590,43 @@
       <c r="F31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="67" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="21" t="s">
         <v>24</v>
       </c>
       <c r="Q31" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="R31" s="24" t="s">
+      <c r="R31" s="67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S31" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>187</v>
       </c>
@@ -6603,39 +6642,42 @@
       <c r="F32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="60" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>187</v>
       </c>
@@ -6651,42 +6693,42 @@
       <c r="F33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="60" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q33" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S33" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>187</v>
       </c>
@@ -6702,39 +6744,39 @@
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="O34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="60" t="s">
+      <c r="P34" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q34" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="R34" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S34" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>187</v>
       </c>
@@ -6750,41 +6792,41 @@
       <c r="F35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="60" t="s">
+      <c r="P35" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q35" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S35" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>187</v>
       </c>
@@ -6800,32 +6842,32 @@
       <c r="F36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="68" t="s">
+      <c r="O36" s="4"/>
+      <c r="P36" s="35" t="s">
         <v>25</v>
       </c>
       <c r="Q36" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="R36" s="53" t="s">
+      <c r="R36" s="68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S36" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>187</v>
       </c>
@@ -6844,32 +6886,32 @@
       <c r="F37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>220</v>
       </c>
-      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P37" s="60" t="s">
+      <c r="O37" s="4"/>
+      <c r="P37" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q37" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S37" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>187</v>
       </c>
@@ -6888,32 +6930,32 @@
       <c r="F38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>222</v>
       </c>
-      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="60" t="s">
+      <c r="O38" s="4"/>
+      <c r="P38" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q38" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S38" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>187</v>
       </c>
@@ -6932,32 +6974,32 @@
       <c r="F39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" s="60" t="s">
+      <c r="O39" s="4"/>
+      <c r="P39" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S39" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>187</v>
       </c>
@@ -6973,32 +7015,32 @@
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>1220</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="68" t="s">
+      <c r="O40" s="4"/>
+      <c r="P40" s="35" t="s">
         <v>25</v>
       </c>
       <c r="Q40" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="R40" s="53" t="s">
+      <c r="R40" s="68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>187</v>
       </c>
@@ -7017,37 +7059,37 @@
       <c r="F41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N41" s="43" t="s">
+      <c r="O41" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="O41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41" s="60" t="s">
+      <c r="P41" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q41" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>225</v>
       </c>
@@ -7064,42 +7106,43 @@
       <c r="F42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P42" s="67" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="21" t="s">
         <v>24</v>
       </c>
       <c r="Q42" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="24" t="s">
+      <c r="R42" s="67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S42" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>225</v>
       </c>
@@ -7115,41 +7158,44 @@
       <c r="F43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="O43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P43" s="60" t="s">
+      <c r="P43" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q43" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="S43" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>225</v>
       </c>
@@ -7168,39 +7214,39 @@
       <c r="F44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="O44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P44" s="60" t="s">
+      <c r="P44" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q44" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="25" t="s">
+      <c r="R44" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>225</v>
       </c>
@@ -7219,39 +7265,39 @@
       <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O45" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q45" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="25" t="s">
+      <c r="R45" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>1190</v>
       </c>
@@ -7268,42 +7314,43 @@
       <c r="F46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="67" t="s">
+      <c r="O46" s="2"/>
+      <c r="P46" s="21" t="s">
         <v>24</v>
       </c>
       <c r="Q46" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="R46" s="24" t="s">
+      <c r="R46" s="67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7311,50 +7358,50 @@
         <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="F47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>190</v>
+        <v>1249</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P47" s="60" t="s">
+      <c r="O47" s="3"/>
+      <c r="P47" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q47" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S47" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7362,50 +7409,50 @@
         <v>15</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>228</v>
+      <c r="H48" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" s="60" t="s">
+      <c r="O48" s="3"/>
+      <c r="P48" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q48" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7413,47 +7460,50 @@
         <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>267</v>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1162</v>
+        <v>228</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" s="60" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q49" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="R49" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7469,35 +7519,35 @@
       <c r="F50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P50" s="60" t="s">
+      <c r="O50" s="3"/>
+      <c r="P50" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q50" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="25" t="s">
+      <c r="R50" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7513,35 +7563,35 @@
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="60" t="s">
+      <c r="O51" s="3"/>
+      <c r="P51" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R51" s="25" t="s">
+      <c r="R51" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7557,35 +7607,35 @@
       <c r="F52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="J52" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52" s="60" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q52" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R52" s="25" t="s">
+      <c r="R52" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7601,35 +7651,35 @@
       <c r="F53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I53" s="44" t="s">
+      <c r="J53" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="60" t="s">
+      <c r="O53" s="3"/>
+      <c r="P53" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q53" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>1190</v>
       </c>
@@ -7645,35 +7695,35 @@
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" s="60" t="s">
+      <c r="O54" s="3"/>
+      <c r="P54" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q54" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R54" s="25" t="s">
+      <c r="R54" s="60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="51" t="s">
         <v>1105</v>
       </c>
@@ -7690,42 +7740,43 @@
       <c r="F55" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="47" t="s">
+      <c r="I55" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="J55" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="47" t="s">
+      <c r="K55" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="47" t="s">
+      <c r="L55" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="47" t="s">
+      <c r="M55" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="47" t="s">
+      <c r="N55" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="51"/>
-      <c r="O55" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P55" s="66" t="s">
+      <c r="O55" s="51"/>
+      <c r="P55" s="49" t="s">
         <v>24</v>
       </c>
       <c r="Q55" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="50" t="s">
+      <c r="R55" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1105</v>
       </c>
@@ -7741,38 +7792,41 @@
       <c r="F56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>1142</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O56" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P56" s="69" t="s">
+      <c r="P56" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q56" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R56" s="46" t="s">
+      <c r="R56" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S56" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1105</v>
       </c>
@@ -7788,41 +7842,41 @@
       <c r="F57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O57" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P57" s="69" t="s">
+      <c r="P57" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q57" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="46" t="s">
+      <c r="R57" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S57" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1105</v>
       </c>
@@ -7841,29 +7895,29 @@
       <c r="F58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>1131</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O58" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P58" s="69" t="s">
+      <c r="P58" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q58" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="46" t="s">
+      <c r="R58" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S58" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1105</v>
       </c>
@@ -7879,29 +7933,29 @@
       <c r="F59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>1132</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="60" t="s">
+      <c r="P59" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q59" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R59" s="25" t="s">
+      <c r="R59" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S59" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1105</v>
       </c>
@@ -7917,29 +7971,29 @@
       <c r="F60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>1133</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>59</v>
       </c>
-      <c r="O60" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60" s="69" t="s">
+      <c r="P60" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q60" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="46" t="s">
+      <c r="R60" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S60" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1105</v>
       </c>
@@ -7955,29 +8009,29 @@
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>1120</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61" s="69" t="s">
+      <c r="P61" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q61" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R61" s="46" t="s">
+      <c r="R61" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1105</v>
       </c>
@@ -7993,29 +8047,29 @@
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>1121</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O62" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62" s="69" t="s">
+      <c r="P62" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q62" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R62" s="46" t="s">
+      <c r="R62" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S62" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="51" t="s">
         <v>1164</v>
       </c>
@@ -8032,42 +8086,43 @@
       <c r="F63" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G63" s="48"/>
+      <c r="H63" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="I63" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="J63" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="47" t="s">
+      <c r="K63" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="L63" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L63" s="47" t="s">
+      <c r="M63" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M63" s="47" t="s">
+      <c r="N63" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="51"/>
-      <c r="O63" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63" s="66" t="s">
+      <c r="O63" s="51"/>
+      <c r="P63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="Q63" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R63" s="50" t="s">
+      <c r="R63" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S63" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1164</v>
       </c>
@@ -8075,49 +8130,47 @@
         <v>15</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>1108</v>
+        <v>1225</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>1109</v>
+        <v>1226</v>
       </c>
       <c r="F64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J64" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="L64" s="3"/>
+      <c r="M64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P64" s="69" t="s">
+      <c r="P64" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q64" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R64" s="46" t="s">
+      <c r="R64" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S64" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1164</v>
       </c>
@@ -8125,44 +8178,49 @@
         <v>15</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>1225</v>
+        <v>1108</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>1226</v>
+        <v>1109</v>
       </c>
       <c r="F65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="3"/>
-      <c r="L65" t="s">
+      <c r="L65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O65" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" s="69" t="s">
+      <c r="P65" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q65" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="46" t="s">
+      <c r="R65" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1164</v>
       </c>
@@ -8178,29 +8236,26 @@
       <c r="F66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="O66" s="45" t="s">
-        <v>24</v>
       </c>
       <c r="P66" s="45" t="s">
         <v>24</v>
@@ -8208,11 +8263,14 @@
       <c r="Q66" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A67" s="51" t="s">
         <v>1115</v>
       </c>
@@ -8229,42 +8287,43 @@
       <c r="F67" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="G67" s="48" t="s">
+      <c r="G67" s="48"/>
+      <c r="H67" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="I67" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="J67" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="47" t="s">
+      <c r="K67" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="47" t="s">
+      <c r="L67" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L67" s="47" t="s">
+      <c r="M67" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="47" t="s">
+      <c r="N67" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="51"/>
-      <c r="O67" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P67" s="66" t="s">
+      <c r="O67" s="51"/>
+      <c r="P67" s="49" t="s">
         <v>24</v>
       </c>
       <c r="Q67" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R67" s="50" t="s">
+      <c r="R67" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S67" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1115</v>
       </c>
@@ -8272,49 +8331,49 @@
         <v>15</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>1108</v>
+        <v>1221</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>1109</v>
+        <v>1222</v>
       </c>
       <c r="F68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J68" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P68" s="69" t="s">
+      <c r="P68" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q68" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R68" s="46" t="s">
+      <c r="R68" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S68" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1115</v>
       </c>
@@ -8322,46 +8381,49 @@
         <v>15</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>1221</v>
+        <v>1108</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>1222</v>
+        <v>1109</v>
       </c>
       <c r="F69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O69" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P69" s="69" t="s">
+      <c r="P69" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q69" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R69" s="46" t="s">
+      <c r="R69" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S69" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1115</v>
       </c>
@@ -8377,35 +8439,35 @@
       <c r="F70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>1128</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>1146</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>22</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O70" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P70" s="69" t="s">
+      <c r="P70" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q70" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R70" s="46" t="s">
+      <c r="R70" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S70" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1115</v>
       </c>
@@ -8421,29 +8483,29 @@
       <c r="F71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>1130</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>22</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>59</v>
       </c>
-      <c r="O71" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P71" s="60" t="s">
+      <c r="P71" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q71" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R71" s="25" t="s">
+      <c r="R71" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S71" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1115</v>
       </c>
@@ -8459,32 +8521,32 @@
       <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>1116</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>1146</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O72" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P72" s="60" t="s">
+      <c r="P72" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q72" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R72" s="25" t="s">
+      <c r="R72" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S72" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A73" s="51" t="s">
         <v>1114</v>
       </c>
@@ -8501,41 +8563,42 @@
       <c r="F73" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="G73" s="75" t="s">
+      <c r="G73" s="51"/>
+      <c r="H73" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="47" t="s">
+      <c r="I73" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="J73" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="51" t="s">
+      <c r="K73" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="47" t="s">
+      <c r="L73" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>22</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O73" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P73" s="66" t="s">
+      <c r="P73" s="49" t="s">
         <v>24</v>
       </c>
       <c r="Q73" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R73" s="50" t="s">
+      <c r="R73" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S73" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1114</v>
       </c>
@@ -8543,49 +8606,49 @@
         <v>15</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>1108</v>
+        <v>1223</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>1109</v>
+        <v>1224</v>
       </c>
       <c r="F74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J74" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>22</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P74" s="69" t="s">
+      <c r="P74" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q74" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R74" s="46" t="s">
+      <c r="R74" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S74" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1114</v>
       </c>
@@ -8593,46 +8656,49 @@
         <v>15</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>1223</v>
+        <v>1108</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>1224</v>
+        <v>1109</v>
       </c>
       <c r="F75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O75" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" s="69" t="s">
+      <c r="P75" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q75" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S75" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1114</v>
       </c>
@@ -8648,29 +8714,29 @@
       <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>1144</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O76" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P76" s="69" t="s">
+      <c r="P76" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q76" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R76" s="46" t="s">
+      <c r="R76" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S76" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1114</v>
       </c>
@@ -8686,29 +8752,29 @@
       <c r="F77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>1145</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>22</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="O77" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="P77" s="65" t="s">
+      <c r="P77" s="76" t="s">
         <v>24</v>
       </c>
       <c r="Q77" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="R77" s="77" t="s">
+      <c r="R77" s="65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S77" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
         <v>1154</v>
       </c>
@@ -8725,41 +8791,42 @@
       <c r="F78" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="48" t="s">
+      <c r="G78" s="51"/>
+      <c r="H78" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="47" t="s">
+      <c r="I78" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="47" t="s">
+      <c r="J78" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="51" t="s">
+      <c r="K78" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="47" t="s">
+      <c r="L78" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="N78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O78" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P78" s="69" t="s">
+      <c r="P78" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q78" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R78" s="46" t="s">
+      <c r="R78" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S78" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1154</v>
       </c>
@@ -8775,38 +8842,41 @@
       <c r="F79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="G79" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>1161</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="L79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>22</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O79" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P79" s="69" t="s">
+      <c r="P79" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q79" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R79" s="46" t="s">
+      <c r="R79" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S79" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1154</v>
       </c>
@@ -8822,41 +8892,41 @@
       <c r="F80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O80" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80" s="69" t="s">
+      <c r="P80" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q80" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R80" s="46" t="s">
+      <c r="R80" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S80" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1154</v>
       </c>
@@ -8872,32 +8942,32 @@
       <c r="F81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="L81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>22</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" s="69" t="s">
+      <c r="P81" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q81" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R81" s="46" t="s">
+      <c r="R81" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S81" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1154</v>
       </c>
@@ -8913,29 +8983,29 @@
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P82" s="60" t="s">
+      <c r="P82" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Q82" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="R82" s="25" t="s">
+      <c r="R82" s="60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S82" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
         <v>1169</v>
       </c>
@@ -8952,41 +9022,42 @@
       <c r="F83" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="48" t="s">
+      <c r="G83" s="51"/>
+      <c r="H83" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="I83" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I83" s="47" t="s">
+      <c r="J83" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="51" t="s">
+      <c r="K83" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="47" t="s">
+      <c r="L83" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O83" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83" s="69" t="s">
+      <c r="P83" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q83" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R83" s="46" t="s">
+      <c r="R83" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S83" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1169</v>
       </c>
@@ -8994,49 +9065,49 @@
         <v>15</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>1149</v>
+        <v>1227</v>
       </c>
       <c r="D84" t="s">
-        <v>1153</v>
+        <v>1228</v>
       </c>
       <c r="F84" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J84" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="N84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P84" s="69" t="s">
+      <c r="P84" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q84" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R84" s="46" t="s">
+      <c r="R84" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S84" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1169</v>
       </c>
@@ -9044,46 +9115,49 @@
         <v>15</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>1227</v>
+        <v>1149</v>
       </c>
       <c r="D85" t="s">
-        <v>1228</v>
+        <v>1153</v>
       </c>
       <c r="F85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1239</v>
-      </c>
-      <c r="J85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>22</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="N85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O85" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P85" s="69" t="s">
+      <c r="P85" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q85" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R85" s="46" t="s">
+      <c r="R85" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S85" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1169</v>
       </c>
@@ -9099,32 +9173,32 @@
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>22</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="N86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O86" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P86" s="69" t="s">
+      <c r="P86" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q86" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R86" s="46" t="s">
+      <c r="R86" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S86" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
         <v>1170</v>
       </c>
@@ -9141,41 +9215,42 @@
       <c r="F87" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="G87" s="48" t="s">
+      <c r="G87" s="51"/>
+      <c r="H87" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="47" t="s">
+      <c r="I87" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="47" t="s">
+      <c r="J87" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="51" t="s">
+      <c r="K87" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="K87" s="47" t="s">
+      <c r="L87" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>22</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="N87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P87" s="69" t="s">
+      <c r="P87" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q87" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R87" s="46" t="s">
+      <c r="R87" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S87" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1170</v>
       </c>
@@ -9183,49 +9258,49 @@
         <v>15</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>1149</v>
+        <v>1229</v>
       </c>
       <c r="D88" t="s">
-        <v>1153</v>
+        <v>1230</v>
       </c>
       <c r="F88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J88" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O88" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P88" s="69" t="s">
+      <c r="P88" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q88" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R88" s="46" t="s">
+      <c r="R88" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S88" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1170</v>
       </c>
@@ -9233,46 +9308,49 @@
         <v>15</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>1229</v>
+        <v>1149</v>
       </c>
       <c r="D89" t="s">
-        <v>1230</v>
+        <v>1153</v>
       </c>
       <c r="F89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>22</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P89" s="69" t="s">
+      <c r="P89" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q89" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R89" s="46" t="s">
+      <c r="R89" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S89" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1170</v>
       </c>
@@ -9288,29 +9366,29 @@
       <c r="F90" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>1160</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>22</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>59</v>
       </c>
-      <c r="O90" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P90" s="69" t="s">
+      <c r="P90" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q90" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R90" s="46" t="s">
+      <c r="R90" s="69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S90" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1170</v>
       </c>
@@ -9326,59 +9404,59 @@
       <c r="F91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>1163</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>22</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="O91" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P91" s="69" t="s">
+      <c r="P91" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q91" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="R91" s="46" t="s">
+      <c r="R91" s="69" t="s">
         <v>24</v>
       </c>
+      <c r="S91" s="46" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R54" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:S54" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R26:R30 O2:Q91" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:S30 P2:R91" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{B6324E9C-8C2F-C145-A45B-D0979D42088D}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{AD5995CB-3565-3B48-9156-047D62073920}"/>
-    <hyperlink ref="N6" r:id="rId4" xr:uid="{F8963F08-972F-114C-8D4B-81774B28E1E8}"/>
-    <hyperlink ref="N7" r:id="rId5" xr:uid="{62DAA995-C6BB-3247-835F-D5EA3183AEDC}"/>
-    <hyperlink ref="N10" r:id="rId6" xr:uid="{00A5B4FD-C83E-1646-9E36-90B3C88897B2}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{0E800A96-5649-664B-87FA-507406E8AF5A}"/>
-    <hyperlink ref="N12" r:id="rId8" xr:uid="{2A0AC7DA-BFEA-3443-B614-4A7FC98F844D}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{8F2A7F37-7570-7F40-9353-495C1A09B7A3}"/>
-    <hyperlink ref="N13" r:id="rId10" xr:uid="{D237E185-4B69-4543-B3D9-E063FA9797A8}"/>
-    <hyperlink ref="N28" r:id="rId11" xr:uid="{FAD09081-DEBA-E242-A319-737B3A1AE1CD}"/>
-    <hyperlink ref="N29" r:id="rId12" xr:uid="{15DAC48D-D827-D441-A849-2DCD46C7727E}"/>
-    <hyperlink ref="N34" r:id="rId13" xr:uid="{8711B354-63F4-0640-8C04-CEC22A8189A2}"/>
-    <hyperlink ref="N35" r:id="rId14" xr:uid="{31F33231-E8A3-0A48-80CA-4A5E9C6BB7C4}"/>
-    <hyperlink ref="N43" r:id="rId15" xr:uid="{6E0D56DC-7AC7-B84C-AF29-BB2E93C98B63}"/>
-    <hyperlink ref="N44" r:id="rId16" xr:uid="{5B078FD9-6B96-BD44-A34F-18EFC5301D7F}"/>
-    <hyperlink ref="N45" r:id="rId17" xr:uid="{8D22E22F-F062-7C4B-A0D3-4A638902D7B6}"/>
-    <hyperlink ref="N41" r:id="rId18" xr:uid="{8D97978A-13BA-4F77-B721-AC8CC2BDF829}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{A58E6FC1-1C35-D840-8A06-8FC26464E9DF}"/>
-    <hyperlink ref="N24" r:id="rId20" xr:uid="{8613F765-3842-A94A-9054-F5BF25A788F4}"/>
-    <hyperlink ref="N23" r:id="rId21" xr:uid="{A4DBEF14-A5AE-4745-AB94-523B6D5EE1B4}"/>
-    <hyperlink ref="N25" r:id="rId22" xr:uid="{68E20778-FF55-764B-B06F-6FAA9D56862D}"/>
-    <hyperlink ref="I22" r:id="rId23" xr:uid="{2D38C7B1-C57C-4D62-A463-032B117407B3}"/>
-    <hyperlink ref="N22" r:id="rId24" xr:uid="{BF91FAF0-BAD3-40C2-8DBE-448231649BC5}"/>
-    <hyperlink ref="N30" r:id="rId25" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{B6324E9C-8C2F-C145-A45B-D0979D42088D}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{AD5995CB-3565-3B48-9156-047D62073920}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{F8963F08-972F-114C-8D4B-81774B28E1E8}"/>
+    <hyperlink ref="O7" r:id="rId5" xr:uid="{62DAA995-C6BB-3247-835F-D5EA3183AEDC}"/>
+    <hyperlink ref="O10" r:id="rId6" xr:uid="{00A5B4FD-C83E-1646-9E36-90B3C88897B2}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{0E800A96-5649-664B-87FA-507406E8AF5A}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{2A0AC7DA-BFEA-3443-B614-4A7FC98F844D}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{8F2A7F37-7570-7F40-9353-495C1A09B7A3}"/>
+    <hyperlink ref="O13" r:id="rId10" xr:uid="{D237E185-4B69-4543-B3D9-E063FA9797A8}"/>
+    <hyperlink ref="O28" r:id="rId11" xr:uid="{FAD09081-DEBA-E242-A319-737B3A1AE1CD}"/>
+    <hyperlink ref="O29" r:id="rId12" xr:uid="{15DAC48D-D827-D441-A849-2DCD46C7727E}"/>
+    <hyperlink ref="O34" r:id="rId13" xr:uid="{8711B354-63F4-0640-8C04-CEC22A8189A2}"/>
+    <hyperlink ref="O35" r:id="rId14" xr:uid="{31F33231-E8A3-0A48-80CA-4A5E9C6BB7C4}"/>
+    <hyperlink ref="O43" r:id="rId15" xr:uid="{6E0D56DC-7AC7-B84C-AF29-BB2E93C98B63}"/>
+    <hyperlink ref="O44" r:id="rId16" xr:uid="{5B078FD9-6B96-BD44-A34F-18EFC5301D7F}"/>
+    <hyperlink ref="O45" r:id="rId17" xr:uid="{8D22E22F-F062-7C4B-A0D3-4A638902D7B6}"/>
+    <hyperlink ref="O41" r:id="rId18" xr:uid="{8D97978A-13BA-4F77-B721-AC8CC2BDF829}"/>
+    <hyperlink ref="O21" r:id="rId19" xr:uid="{A58E6FC1-1C35-D840-8A06-8FC26464E9DF}"/>
+    <hyperlink ref="O24" r:id="rId20" xr:uid="{8613F765-3842-A94A-9054-F5BF25A788F4}"/>
+    <hyperlink ref="O23" r:id="rId21" xr:uid="{A4DBEF14-A5AE-4745-AB94-523B6D5EE1B4}"/>
+    <hyperlink ref="O25" r:id="rId22" xr:uid="{68E20778-FF55-764B-B06F-6FAA9D56862D}"/>
+    <hyperlink ref="J22" r:id="rId23" xr:uid="{2D38C7B1-C57C-4D62-A463-032B117407B3}"/>
+    <hyperlink ref="O22" r:id="rId24" xr:uid="{BF91FAF0-BAD3-40C2-8DBE-448231649BC5}"/>
+    <hyperlink ref="O30" r:id="rId25" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28851,8 +28929,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reads/reads_schema_main_v0.1.xlsx
+++ b/reads/reads_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD21C1F-4552-4049-BA3A-E2C9A0D3379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A0D79-9E0C-814A-82F6-C95205E53645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1256">
   <si>
     <t>component_name</t>
   </si>
@@ -3533,12 +3533,6 @@
     <t>sequencing_annotation_file_type</t>
   </si>
   <si>
-    <t>sequencing_annotation_file_name</t>
-  </si>
-  <si>
-    <t>assembly_file_name</t>
-  </si>
-  <si>
     <t>Sequencing Annotation ID</t>
   </si>
   <si>
@@ -3834,6 +3828,24 @@
   </si>
   <si>
     <t>LIBPREP</t>
+  </si>
+  <si>
+    <t>sequencing_annotation_file_checksum</t>
+  </si>
+  <si>
+    <t>File Checksum</t>
+  </si>
+  <si>
+    <t>assembly_file_checksum</t>
+  </si>
+  <si>
+    <t>^[0-9a-f]{32}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it must be a hex number with  32 digits </t>
+  </si>
+  <si>
+    <t>it must be a  hex number with 32 digits</t>
   </si>
 </sst>
 </file>
@@ -5133,12 +5145,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="G33" sqref="G33"/>
+      <selection pane="topRight" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -5210,16 +5222,16 @@
         <v>13</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="S1" s="57" t="s">
         <v>1173</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -6643,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>190</v>
@@ -6837,7 +6849,7 @@
         <v>217</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
@@ -6878,7 +6890,7 @@
         <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>219</v>
@@ -6922,7 +6934,7 @@
         <v>221</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>221</v>
@@ -6966,7 +6978,7 @@
         <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>223</v>
@@ -7007,16 +7019,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -7159,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>228</v>
@@ -7299,7 +7311,7 @@
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
@@ -7352,7 +7364,7 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -7367,13 +7379,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>267</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>20</v>
@@ -7403,7 +7415,7 @@
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -7454,7 +7466,7 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -7505,7 +7517,7 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
@@ -7549,7 +7561,7 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>15</v>
@@ -7593,7 +7605,7 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -7613,8 +7625,12 @@
       <c r="J52" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>1254</v>
+      </c>
       <c r="M52" s="3" t="s">
         <v>22</v>
       </c>
@@ -7637,7 +7653,7 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
@@ -7657,8 +7673,12 @@
       <c r="J53" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>1255</v>
+      </c>
       <c r="M53" s="3" t="s">
         <v>22</v>
       </c>
@@ -7681,13 +7701,13 @@
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>283</v>
@@ -7793,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>1129</v>
@@ -8071,7 +8091,7 @@
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A63" s="51" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B63" s="51" t="s">
         <v>15</v>
@@ -8124,28 +8144,28 @@
     </row>
     <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J64" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>20</v>
@@ -8172,7 +8192,7 @@
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>15</v>
@@ -8222,28 +8242,28 @@
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>20</v>
@@ -8331,22 +8351,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J68" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>20</v>
@@ -8606,22 +8626,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J74" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>20</v>
@@ -8736,7 +8756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1114</v>
       </c>
@@ -8744,7 +8764,7 @@
         <v>15</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="D77" t="s">
         <v>282</v>
@@ -8774,87 +8794,85 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B78" s="47" t="s">
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="47"/>
-      <c r="F78" s="51" t="b">
+      <c r="C78" s="44" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="51"/>
-      <c r="H78" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L78" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="I78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P78" s="45" t="s">
+      <c r="O78" s="3"/>
+      <c r="P78" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="69" t="s">
+      <c r="Q78" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="R78" s="69" t="s">
+      <c r="R78" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="S78" s="46" t="s">
+      <c r="S78" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="47" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B79" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="44" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K79" s="3" t="s">
+      <c r="C79" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="47"/>
+      <c r="F79" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="51"/>
+      <c r="H79" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M79" t="s">
@@ -8878,28 +8896,28 @@
     </row>
     <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>155</v>
+        <v>1149</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>1151</v>
       </c>
       <c r="F80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1244</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>158</v>
+        <v>1157</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1159</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>20</v>
@@ -8928,22 +8946,31 @@
     </row>
     <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>1165</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="F81" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="H81" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="I81" s="3" t="s">
-        <v>1167</v>
+        <v>1135</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>21</v>
@@ -8967,24 +8994,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="M82" t="s">
         <v>22</v>
@@ -8992,51 +9022,37 @@
       <c r="N82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="R82" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B83" s="47" t="s">
+      <c r="P82" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S82" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="47"/>
-      <c r="F83" s="51" t="b">
+      <c r="C83" s="44" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="51"/>
-      <c r="H83" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J83" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L83" s="47" t="s">
-        <v>21</v>
+      <c r="I83" s="3" t="s">
+        <v>1166</v>
       </c>
       <c r="M83" t="s">
         <v>22</v>
@@ -9044,48 +9060,50 @@
       <c r="N83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P83" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q83" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="R83" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="S83" s="46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="P83" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="47" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B84" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="44" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K84" s="3" t="s">
+      <c r="C84" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="51"/>
+      <c r="H84" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M84" t="s">
@@ -9109,28 +9127,28 @@
     </row>
     <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>1149</v>
+        <v>1225</v>
       </c>
       <c r="D85" t="s">
-        <v>1153</v>
+        <v>1226</v>
       </c>
       <c r="F85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>1154</v>
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1245</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1159</v>
+        <v>1232</v>
       </c>
       <c r="J85" t="s">
-        <v>1161</v>
+        <v>1237</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>20</v>
@@ -9157,27 +9175,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>1214</v>
+        <v>1149</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1151</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>1190</v>
+        <v>1152</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1143</v>
+        <v>1157</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="M86" t="s">
         <v>22</v>
@@ -9198,38 +9225,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B87" s="47" t="s">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="51" t="b">
+      <c r="C87" s="44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G87" s="51"/>
-      <c r="H87" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J87" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K87" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" s="47" t="s">
-        <v>21</v>
+      <c r="H87" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>1143</v>
       </c>
       <c r="M87" t="s">
         <v>22</v>
@@ -9250,35 +9266,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="47" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B88" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="44" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="C88" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="51"/>
+      <c r="H88" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="L88" s="47" t="s">
         <v>21</v>
       </c>
       <c r="M88" t="s">
@@ -9302,28 +9320,28 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>1149</v>
+        <v>1227</v>
       </c>
       <c r="D89" t="s">
-        <v>1153</v>
+        <v>1228</v>
       </c>
       <c r="F89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>1154</v>
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1246</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1159</v>
+        <v>1233</v>
       </c>
       <c r="J89" t="s">
-        <v>1161</v>
+        <v>1238</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>20</v>
@@ -9352,28 +9370,40 @@
     </row>
     <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>1151</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>1160</v>
+      <c r="H90" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="M90" t="s">
         <v>22</v>
       </c>
-      <c r="N90" t="s">
-        <v>59</v>
+      <c r="N90" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="P90" s="45" t="s">
         <v>24</v>
@@ -9390,28 +9420,28 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="M91" t="s">
         <v>22</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>253</v>
+      <c r="N91" t="s">
+        <v>59</v>
       </c>
       <c r="P91" s="45" t="s">
         <v>24</v>
@@ -9423,13 +9453,99 @@
         <v>24</v>
       </c>
       <c r="S91" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D92" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M92" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P92" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q92" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="S92" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J93" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S93" s="25" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S54" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:S30 P2:R91" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:S30 P2:R93" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
@@ -9706,7 +9822,7 @@
         <v>231</v>
       </c>
       <c r="BE1" s="42" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="BF1" s="13" t="s">
         <v>1110</v>
@@ -9870,7 +9986,7 @@
         <v>343</v>
       </c>
       <c r="AX2" s="34" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AY2" s="16" t="s">
         <v>344</v>
@@ -9889,7 +10005,7 @@
       </c>
       <c r="BD2" s="36"/>
       <c r="BE2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="BF2" t="s">
         <v>1122</v>
@@ -9901,7 +10017,7 @@
         <v>1137</v>
       </c>
       <c r="BI2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20" x14ac:dyDescent="0.25">
@@ -10049,7 +10165,7 @@
         <v>381</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AY3" s="16" t="s">
         <v>382</v>
@@ -10080,7 +10196,7 @@
         <v>1138</v>
       </c>
       <c r="BI3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10212,7 +10328,7 @@
         <v>415</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AY4" s="16" t="s">
         <v>416</v>
@@ -10231,7 +10347,7 @@
       </c>
       <c r="BD4" s="36"/>
       <c r="BE4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="BG4" t="s">
         <v>1119</v>
@@ -10240,7 +10356,7 @@
         <v>1139</v>
       </c>
       <c r="BI4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="20" x14ac:dyDescent="0.25">
@@ -10362,7 +10478,7 @@
         <v>447</v>
       </c>
       <c r="AX5" s="16" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AY5" s="16" t="s">
         <v>448</v>
@@ -10381,13 +10497,13 @@
       </c>
       <c r="BD5" s="36"/>
       <c r="BE5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="BH5" t="s">
         <v>1140</v>
       </c>
       <c r="BI5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="20" x14ac:dyDescent="0.25">
@@ -10495,7 +10611,7 @@
         <v>474</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AY6" s="16" t="s">
         <v>475</v>
@@ -10608,7 +10724,7 @@
         <v>496</v>
       </c>
       <c r="AX7" s="16" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AY7" s="16" t="s">
         <v>497</v>
@@ -10712,7 +10828,7 @@
         <v>513</v>
       </c>
       <c r="AX8" s="16" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AY8" s="16" t="s">
         <v>514</v>
@@ -10808,7 +10924,7 @@
         <v>528</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AY9" s="16" t="s">
         <v>529</v>
@@ -10890,7 +11006,7 @@
         <v>538</v>
       </c>
       <c r="AX10" s="16" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="AY10" s="16" t="s">
         <v>539</v>
@@ -10972,7 +11088,7 @@
         <v>548</v>
       </c>
       <c r="AX11" s="16" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AY11" s="16" t="s">
         <v>549</v>
@@ -11048,7 +11164,7 @@
         <v>556</v>
       </c>
       <c r="AX12" s="16" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AY12" s="16" t="s">
         <v>557</v>
@@ -11122,7 +11238,7 @@
         <v>563</v>
       </c>
       <c r="AX13" s="16" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AY13" s="16" t="s">
         <v>564</v>
@@ -11196,7 +11312,7 @@
         <v>570</v>
       </c>
       <c r="AX14" s="16" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AY14" s="16" t="s">
         <v>571</v>
@@ -11268,7 +11384,7 @@
         <v>576</v>
       </c>
       <c r="AX15" s="16" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AY15" s="16" t="s">
         <v>577</v>
@@ -11340,7 +11456,7 @@
         <v>582</v>
       </c>
       <c r="AX16" s="16" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AY16" s="16" t="s">
         <v>583</v>
@@ -11412,7 +11528,7 @@
         <v>588</v>
       </c>
       <c r="AX17" s="16" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AY17" s="16" t="s">
         <v>589</v>
@@ -28851,13 +28967,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D2" t="s">
         <v>1067</v>
@@ -28868,13 +28984,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -28885,13 +29001,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D4" t="s">
         <v>185</v>
@@ -28902,13 +29018,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D5" t="s">
         <v>90</v>
@@ -29003,10 +29119,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C7" t="s">
         <v>1077</v>
@@ -29028,15 +29144,15 @@
         <v>1115</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -29044,34 +29160,34 @@
         <v>1114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1107</v>
       </c>
       <c r="C12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -29356,12 +29472,12 @@
         <v>256</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>260</v>

--- a/reads/reads_schema_main_v0.1.xlsx
+++ b/reads/reads_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/reads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A0D79-9E0C-814A-82F6-C95205E53645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B16059-9231-8841-BF86-EF99660DDD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3602,18 +3602,6 @@
     <t>version_faang</t>
   </si>
   <si>
-    <t>Reads [Darwin Core (DwC)]</t>
-  </si>
-  <si>
-    <t>Reads [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
-    <t>Reads ((scRNA-Seq) [Tree of Life (ToL)]</t>
-  </si>
-  <si>
-    <t>Reads [Functional Annotation of Animal Genomes (FAANG)]</t>
-  </si>
-  <si>
     <t>For raw read sequencing data with the Darwin Core (DwC) standard.</t>
   </si>
   <si>
@@ -3846,6 +3834,18 @@
   </si>
   <si>
     <t>it must be a  hex number with 32 digits</t>
+  </si>
+  <si>
+    <t>Darwin Core metadata</t>
+  </si>
+  <si>
+    <t>Minimum Information about any Sequence metadata</t>
+  </si>
+  <si>
+    <t>Tree of Life metadata</t>
+  </si>
+  <si>
+    <t>Functional Annotation of Animal Genomes metadata</t>
   </si>
 </sst>
 </file>
@@ -5147,7 +5147,7 @@
   </sheetPr>
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
       <selection pane="topRight" activeCell="L78" sqref="L78"/>
@@ -5195,7 +5195,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>190</v>
@@ -6849,7 +6849,7 @@
         <v>217</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>219</v>
@@ -6934,7 +6934,7 @@
         <v>221</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>221</v>
@@ -6978,7 +6978,7 @@
         <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>223</v>
@@ -7019,16 +7019,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -7171,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>228</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>267</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>15</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -7626,10 +7626,10 @@
         <v>1104</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>22</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
@@ -7674,10 +7674,10 @@
         <v>1104</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>22</v>
@@ -7701,13 +7701,13 @@
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>283</v>
@@ -7813,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>1129</v>
@@ -8150,22 +8150,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="J64" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>20</v>
@@ -8248,16 +8248,16 @@
         <v>15</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>1143</v>
@@ -8351,22 +8351,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="J68" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>20</v>
@@ -8626,22 +8626,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="J74" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>20</v>
@@ -8802,10 +8802,10 @@
         <v>15</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>1104</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>22</v>
@@ -8911,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>1157</v>
@@ -9133,22 +9133,22 @@
         <v>15</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D85" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="J85" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>20</v>
@@ -9233,16 +9233,16 @@
         <v>15</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>1143</v>
@@ -9326,22 +9326,22 @@
         <v>15</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D89" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="J89" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>20</v>
@@ -9502,10 +9502,10 @@
         <v>15</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>0</v>
@@ -9517,10 +9517,10 @@
         <v>1104</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>22</v>
@@ -9822,7 +9822,7 @@
         <v>231</v>
       </c>
       <c r="BE1" s="42" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="BF1" s="13" t="s">
         <v>1110</v>
@@ -9986,7 +9986,7 @@
         <v>343</v>
       </c>
       <c r="AX2" s="34" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="AY2" s="16" t="s">
         <v>344</v>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="BD2" s="36"/>
       <c r="BE2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="BF2" t="s">
         <v>1122</v>
@@ -10165,7 +10165,7 @@
         <v>381</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="AY3" s="16" t="s">
         <v>382</v>
@@ -10328,7 +10328,7 @@
         <v>415</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="AY4" s="16" t="s">
         <v>416</v>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="BD4" s="36"/>
       <c r="BE4" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="BG4" t="s">
         <v>1119</v>
@@ -10478,7 +10478,7 @@
         <v>447</v>
       </c>
       <c r="AX5" s="16" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="AY5" s="16" t="s">
         <v>448</v>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="BD5" s="36"/>
       <c r="BE5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="BH5" t="s">
         <v>1140</v>
@@ -10611,7 +10611,7 @@
         <v>474</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AY6" s="16" t="s">
         <v>475</v>
@@ -10724,7 +10724,7 @@
         <v>496</v>
       </c>
       <c r="AX7" s="16" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="AY7" s="16" t="s">
         <v>497</v>
@@ -10828,7 +10828,7 @@
         <v>513</v>
       </c>
       <c r="AX8" s="16" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="AY8" s="16" t="s">
         <v>514</v>
@@ -10924,7 +10924,7 @@
         <v>528</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="AY9" s="16" t="s">
         <v>529</v>
@@ -11006,7 +11006,7 @@
         <v>538</v>
       </c>
       <c r="AX10" s="16" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="AY10" s="16" t="s">
         <v>539</v>
@@ -11088,7 +11088,7 @@
         <v>548</v>
       </c>
       <c r="AX11" s="16" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="AY11" s="16" t="s">
         <v>549</v>
@@ -11164,7 +11164,7 @@
         <v>556</v>
       </c>
       <c r="AX12" s="16" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AY12" s="16" t="s">
         <v>557</v>
@@ -11238,7 +11238,7 @@
         <v>563</v>
       </c>
       <c r="AX13" s="16" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="AY13" s="16" t="s">
         <v>564</v>
@@ -11312,7 +11312,7 @@
         <v>570</v>
       </c>
       <c r="AX14" s="16" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AY14" s="16" t="s">
         <v>571</v>
@@ -11384,7 +11384,7 @@
         <v>576</v>
       </c>
       <c r="AX15" s="16" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="AY15" s="16" t="s">
         <v>577</v>
@@ -11456,7 +11456,7 @@
         <v>582</v>
       </c>
       <c r="AX16" s="16" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AY16" s="16" t="s">
         <v>583</v>
@@ -11528,7 +11528,7 @@
         <v>588</v>
       </c>
       <c r="AX17" s="16" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="AY17" s="16" t="s">
         <v>589</v>
@@ -28936,8 +28936,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28970,10 +28970,10 @@
         <v>1170</v>
       </c>
       <c r="B2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C2" t="s">
         <v>1174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1178</v>
       </c>
       <c r="D2" t="s">
         <v>1067</v>
@@ -28987,10 +28987,10 @@
         <v>1171</v>
       </c>
       <c r="B3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C3" t="s">
         <v>1175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1179</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -29004,10 +29004,10 @@
         <v>1172</v>
       </c>
       <c r="B4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C4" t="s">
         <v>1176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1180</v>
       </c>
       <c r="D4" t="s">
         <v>185</v>
@@ -29021,10 +29021,10 @@
         <v>1173</v>
       </c>
       <c r="B5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C5" t="s">
         <v>1177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1181</v>
       </c>
       <c r="D5" t="s">
         <v>90</v>
@@ -29119,10 +29119,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C7" t="s">
         <v>1077</v>
@@ -29144,7 +29144,7 @@
         <v>1115</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -29152,7 +29152,7 @@
         <v>1162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -29160,7 +29160,7 @@
         <v>1114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -29179,7 +29179,7 @@
         <v>1167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -29187,7 +29187,7 @@
         <v>1168</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
@@ -29477,7 +29477,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>260</v>

--- a/reads/reads_schema_main_v0.1.xlsx
+++ b/reads/reads_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/reads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A534CC-6AA2-D24E-88A9-E7AF5B6F909F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF491DAC-A76E-FF4A-B4F3-3DDE221B1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1160" yWindow="780" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="980" yWindow="2300" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3815,9 +3815,6 @@
     <t>a3f4c1b29d8e57fa41b02de6c7f9ab83</t>
   </si>
   <si>
-    <t>Programme</t>
-  </si>
-  <si>
     <t>5e3b6a13f8c1f0ab95f39c47e3d8a610</t>
   </si>
   <si>
@@ -3870,6 +3867,9 @@
   </si>
   <si>
     <t>Genome Sequencing Initiative</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -5178,10 +5178,10 @@
   </sheetPr>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5336,7 +5336,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>28</v>
@@ -5383,7 +5383,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5423,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>28</v>
@@ -5471,7 +5471,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>28</v>
@@ -6791,7 +6791,7 @@
         <v>178</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -7955,7 +7955,7 @@
         <v>1108</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
@@ -7996,7 +7996,7 @@
         <v>1109</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M59" t="s">
         <v>20</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>1100</v>
@@ -8069,16 +8069,16 @@
         <v>1090</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>1245</v>
+        <v>1263</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M61" t="s">
         <v>20</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>1096</v>
@@ -8838,7 +8838,7 @@
         <v>1119</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M77" t="s">
         <v>20</v>
@@ -8879,7 +8879,7 @@
         <v>258</v>
       </c>
       <c r="J78" s="78" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>1219</v>
@@ -9079,7 +9079,7 @@
         <v>1137</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" t="s">
@@ -9121,7 +9121,7 @@
         <v>1138</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M83" t="s">
         <v>20</v>
@@ -9413,7 +9413,7 @@
         <v>1201</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>19</v>
@@ -9463,7 +9463,7 @@
         <v>1130</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>19</v>
@@ -9510,7 +9510,7 @@
         <v>1131</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M91" t="s">
         <v>20</v>
@@ -9551,7 +9551,7 @@
         <v>1133</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="M92" t="s">
         <v>20</v>

--- a/reads/reads_schema_main_v0.1.xlsx
+++ b/reads/reads_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/reads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF491DAC-A76E-FF4A-B4F3-3DDE221B1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE71416-C5F8-4148-A7AB-7DD72EA7AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2300" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1263">
   <si>
     <t>component_name</t>
   </si>
@@ -3840,9 +3840,6 @@
   </si>
   <si>
     <t>assembly_test1.fasta</t>
-  </si>
-  <si>
-    <t>gfff</t>
   </si>
   <si>
     <t>sequence_annotation_test1.gff3</t>
@@ -5178,10 +5175,10 @@
   </sheetPr>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="D62" sqref="D62"/>
+      <selection pane="topRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7955,7 +7952,7 @@
         <v>1108</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
@@ -7996,7 +7993,7 @@
         <v>1109</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M59" t="s">
         <v>20</v>
@@ -8069,7 +8066,7 @@
         <v>1090</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
@@ -8078,7 +8075,7 @@
         <v>1251</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M61" t="s">
         <v>20</v>
@@ -9079,7 +9076,7 @@
         <v>1137</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" t="s">
@@ -9121,7 +9118,7 @@
         <v>1138</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M83" t="s">
         <v>20</v>
@@ -9413,7 +9410,7 @@
         <v>1201</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>19</v>
@@ -9463,7 +9460,7 @@
         <v>1130</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>19</v>
@@ -9510,7 +9507,7 @@
         <v>1131</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1254</v>
+        <v>1126</v>
       </c>
       <c r="M91" t="s">
         <v>20</v>
@@ -9551,7 +9548,7 @@
         <v>1133</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M92" t="s">
         <v>20</v>
@@ -9671,7 +9668,7 @@
   </sheetPr>
   <dimension ref="A1:BI464"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="99" workbookViewId="0">
       <selection activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
